--- a/Touchpoint_Analyse.xlsx
+++ b/Touchpoint_Analyse.xlsx
@@ -9,11 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="480" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Matrix" sheetId="1" r:id="rId1"/>
+    <sheet name="Legende" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="OLE_LINK57" localSheetId="0">Matrix!#REF!</definedName>
+    <definedName name="OLE_LINK58" localSheetId="0">Matrix!#REF!</definedName>
+    <definedName name="OLE_LINK76" localSheetId="1">Legende!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,31 +33,224 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Trigger</t>
-  </si>
-  <si>
-    <t>Aufmerksamkeit</t>
-  </si>
-  <si>
-    <t>Infromation</t>
-  </si>
-  <si>
-    <t>Beratung und Vergleich</t>
-  </si>
-  <si>
-    <t>Kaufabschluss</t>
-  </si>
-  <si>
-    <t>After-Sales</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+  <si>
+    <t>Touchpoint</t>
+  </si>
+  <si>
+    <t>UI Präsentation</t>
+  </si>
+  <si>
+    <t>Seitenbereich</t>
+  </si>
+  <si>
+    <t>Personalisierungskomplexität</t>
+  </si>
+  <si>
+    <t>Beispiel der Personalisierung</t>
+  </si>
+  <si>
+    <t>Customer Journey Stage</t>
+  </si>
+  <si>
+    <t>Facett Navigation</t>
+  </si>
+  <si>
+    <t>Filterung</t>
+  </si>
+  <si>
+    <t>Navigationsknoten</t>
+  </si>
+  <si>
+    <t>AÜS</t>
+  </si>
+  <si>
+    <t>Explizit über Kundendefinition oder Rückschlüsse aus Kaufanalyse</t>
+  </si>
+  <si>
+    <t>Beratungs- und Vergleichsphase</t>
+  </si>
+  <si>
+    <t>Content-Element</t>
+  </si>
+  <si>
+    <t>Datenerhebungsmöglichkeit</t>
+  </si>
+  <si>
+    <t>Vorausgewählte Größenpräferenz Filter</t>
+  </si>
+  <si>
+    <t>Content-Element des Shops</t>
+  </si>
+  <si>
+    <t>Bewertung 0 - 4 (siehe untenstehende Legende)</t>
+  </si>
+  <si>
+    <t>Hard-Coded - Keine Algorithmische Steuerung. Ausschließliche Aussteuerung durch manuelle Konfiguration.</t>
+  </si>
+  <si>
+    <t>Soft-Coded - Algorithmische Steuerung mit manueller Konfigurationsmöglichkeit.</t>
+  </si>
+  <si>
+    <t>Automized-Coded - Algorithmisch gesteuert ohne manuelle Konfigurationsmöglichkeit.</t>
+  </si>
+  <si>
+    <t>Personalized-Coded - Algortithmus verarbeitet individuelle Nutzer- und Kontextdaten unter Verwendung eines statischen Modells.</t>
+  </si>
+  <si>
+    <t>Personalizes-Self-Learned-Coded - Individuelle Nutzer Daten werden durch ein selbstlernendes Modell verarbeitet.</t>
+  </si>
+  <si>
+    <t>Komplexität</t>
+  </si>
+  <si>
+    <t>Screenshot des Elements</t>
+  </si>
+  <si>
+    <t>Aufzeigen, wie eine mögliche Personalisierung Einfluss auf das Element hätte - was würde sich konkret in der Darstellung oder Verhaltensweise ändern?
+Bspw.: Änderung der Sortierung, Anordnung, Vorauswahl</t>
+  </si>
+  <si>
+    <t>Welche Datenbasis ist entscheidend? Wie können diese Daten erhoben werden, also was wären reele Erhebungsmöglichkeiten der Basisdatenanalyse.
+Bspw.: Analyse der Bestelldaten, Klickstream Analyse, Korrelationsanalyse</t>
+  </si>
+  <si>
+    <t>individueller Elementname für spätere Bewertung
+Bspw: Content-Landigpage, Einspieler, Facettnavigation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Benenung des bewerteten Touchpoints - Erarbeitete Touchpoints aus den versch. Stages beispielhaft bewerten.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Referenz: Kapitel 3.2 - 3.6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Bspw: Filternavigation, Landingpage, Google-Ad</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Welcher Seitenbereich wird angesprochen?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Referenz: Kapitel 2.4.2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Bspw.: Übersichtsseiten, Navigationsbereiche, Startseite</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Welches Contentelement spielt eine Rolle?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Referenz: Kapitel 2.4.3.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bspw.: Produktkontexte, Shortcodes, Kampagnen-Anreißer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In welcher Stage ist der Touchpoint zu finden.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Referenz: Kapitel 3.2. - 3.6.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bspw.: Evluation, Consider, Moment of Purchase</t>
+    </r>
+  </si>
+  <si>
+    <t>Elementname</t>
+  </si>
+  <si>
+    <t>Daten</t>
+  </si>
+  <si>
+    <t>Beispiel</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Bereich</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -59,13 +258,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,13 +314,372 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="171">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -94,6 +690,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 6" descr="../../../../Desktop/Screen%20Shot%202018-12-13%20at%2017.02.01.pn"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1625600" y="4102100"/>
+          <a:ext cx="723900" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,42 +1015,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Touchpoint_Analyse.xlsx
+++ b/Touchpoint_Analyse.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="480" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <definedName name="OLE_LINK57" localSheetId="0">Matrix!#REF!</definedName>
     <definedName name="OLE_LINK58" localSheetId="0">Matrix!#REF!</definedName>
     <definedName name="OLE_LINK76" localSheetId="1">Legende!#REF!</definedName>
+    <definedName name="OLE_LINK90" localSheetId="0">Matrix!$A$26</definedName>
+    <definedName name="OLE_LINK98" localSheetId="0">Matrix!$A$51</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
   <si>
     <t>Touchpoint</t>
   </si>
@@ -245,12 +247,168 @@
   <si>
     <t>Bereich</t>
   </si>
+  <si>
+    <t>Consider</t>
+  </si>
+  <si>
+    <t>Werbeanzeigen (Instagram, Facebook, Google SEA)</t>
+  </si>
+  <si>
+    <t>Evaluate</t>
+  </si>
+  <si>
+    <t>Crosselling / Upselling / Zubehör</t>
+  </si>
+  <si>
+    <t>Moment of Purchase</t>
+  </si>
+  <si>
+    <t>Postpurchase Experience</t>
+  </si>
+  <si>
+    <t>Inspirationsseiten</t>
+  </si>
+  <si>
+    <t>Blogbeiträge (extern wie intern)</t>
+  </si>
+  <si>
+    <t>Persönliche Empfehlungen (Gespräche mit Dritten)</t>
+  </si>
+  <si>
+    <t>User generated Content</t>
+  </si>
+  <si>
+    <t>Persönliche Ansprache</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Paid Content (Ad Kampagnen)</t>
+  </si>
+  <si>
+    <t>Aktiv übersendete E-Mails</t>
+  </si>
+  <si>
+    <t>Bannerflächen innerhalb des Shops</t>
+  </si>
+  <si>
+    <t>Beraterservices</t>
+  </si>
+  <si>
+    <t>Kommunikationsschaltflächen</t>
+  </si>
+  <si>
+    <t>Kampagnen-Anreißer</t>
+  </si>
+  <si>
+    <t>Artikeldetailseiten</t>
+  </si>
+  <si>
+    <t>Artikelübersichtsseiten</t>
+  </si>
+  <si>
+    <t>Facettnavigation</t>
+  </si>
+  <si>
+    <t>Navigationsbereiche</t>
+  </si>
+  <si>
+    <t>Suche</t>
+  </si>
+  <si>
+    <t>Guided Selling</t>
+  </si>
+  <si>
+    <t>Beraterservices (Produktberater – Größenberater)</t>
+  </si>
+  <si>
+    <t>Vergleichsfunktionalitäten</t>
+  </si>
+  <si>
+    <t>Crosselling – Upselling</t>
+  </si>
+  <si>
+    <t>Product Recommendations</t>
+  </si>
+  <si>
+    <t>Top Produkte</t>
+  </si>
+  <si>
+    <t>Produkte / Kampagnen Teilen</t>
+  </si>
+  <si>
+    <t>Warenkorb</t>
+  </si>
+  <si>
+    <t>Login / Registrierung</t>
+  </si>
+  <si>
+    <t>Bezahldienstleister</t>
+  </si>
+  <si>
+    <t>Dankeseite</t>
+  </si>
+  <si>
+    <t>Bestellbestätigung</t>
+  </si>
+  <si>
+    <t>Versandaktualsierung</t>
+  </si>
+  <si>
+    <t>Loginbereich</t>
+  </si>
+  <si>
+    <t>Verpackung, Beileger</t>
+  </si>
+  <si>
+    <t>Rechnung</t>
+  </si>
+  <si>
+    <t>Lieferschein</t>
+  </si>
+  <si>
+    <t>FAQs</t>
+  </si>
+  <si>
+    <t>Service Hotline</t>
+  </si>
+  <si>
+    <t>Retrouren Prozess im Shop</t>
+  </si>
+  <si>
+    <t>Verpackung</t>
+  </si>
+  <si>
+    <t>Kontobereich im Shop</t>
+  </si>
+  <si>
+    <t>Newsletter</t>
+  </si>
+  <si>
+    <t>Geburtstagsbenachrichtigungen</t>
+  </si>
+  <si>
+    <t>Teilen von Produkten / Kampagnen</t>
+  </si>
+  <si>
+    <t>Bewertungsmöglichkeit von Produkten / Kampagnen</t>
+  </si>
+  <si>
+    <t>User Generated Content</t>
+  </si>
+  <si>
+    <t>Soziale Medien</t>
+  </si>
+  <si>
+    <t>Geburtstagsmails</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,6 +448,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -314,7 +483,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="171">
+  <cellStyleXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -486,8 +655,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -498,18 +687,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="171">
+  <cellStyles count="191">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -595,6 +791,16 @@
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -680,6 +886,16 @@
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -690,66 +906,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 6" descr="../../../../Desktop/Screen%20Shot%202018-12-13%20at%2017.02.01.pn"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1625600" y="4102100"/>
-          <a:ext cx="723900" cy="1104900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1015,84 +1171,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="10">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1100,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1112,7 +1700,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="64" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1120,7 +1708,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1128,7 +1716,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1136,7 +1724,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1144,7 +1732,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1152,7 +1740,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1160,7 +1748,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1168,7 +1756,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1176,7 +1764,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1184,7 +1772,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1196,7 +1784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1</v>
       </c>

--- a/Touchpoint_Analyse.xlsx
+++ b/Touchpoint_Analyse.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <definedName name="OLE_LINK57" localSheetId="0">Matrix!#REF!</definedName>
     <definedName name="OLE_LINK58" localSheetId="0">Matrix!#REF!</definedName>
     <definedName name="OLE_LINK76" localSheetId="1">Legende!#REF!</definedName>
-    <definedName name="OLE_LINK90" localSheetId="0">Matrix!$A$26</definedName>
-    <definedName name="OLE_LINK98" localSheetId="0">Matrix!$A$51</definedName>
+    <definedName name="OLE_LINK90" localSheetId="0">Matrix!$A$20</definedName>
+    <definedName name="OLE_LINK92" localSheetId="0">Matrix!#REF!</definedName>
+    <definedName name="OLE_LINK98" localSheetId="0">Matrix!$A$45</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="88">
   <si>
     <t>Touchpoint</t>
   </si>
@@ -251,9 +252,6 @@
     <t>Consider</t>
   </si>
   <si>
-    <t>Werbeanzeigen (Instagram, Facebook, Google SEA)</t>
-  </si>
-  <si>
     <t>Evaluate</t>
   </si>
   <si>
@@ -269,36 +267,15 @@
     <t>Inspirationsseiten</t>
   </si>
   <si>
-    <t>Blogbeiträge (extern wie intern)</t>
-  </si>
-  <si>
-    <t>Persönliche Empfehlungen (Gespräche mit Dritten)</t>
-  </si>
-  <si>
     <t>User generated Content</t>
   </si>
   <si>
-    <t>Persönliche Ansprache</t>
-  </si>
-  <si>
-    <t>Social Media</t>
-  </si>
-  <si>
-    <t>Paid Content (Ad Kampagnen)</t>
-  </si>
-  <si>
-    <t>Aktiv übersendete E-Mails</t>
-  </si>
-  <si>
     <t>Bannerflächen innerhalb des Shops</t>
   </si>
   <si>
     <t>Beraterservices</t>
   </si>
   <si>
-    <t>Kommunikationsschaltflächen</t>
-  </si>
-  <si>
     <t>Kampagnen-Anreißer</t>
   </si>
   <si>
@@ -402,13 +379,37 @@
   </si>
   <si>
     <t>Geburtstagsmails</t>
+  </si>
+  <si>
+    <t>User-Generated-Content</t>
+  </si>
+  <si>
+    <t>E-Mails</t>
+  </si>
+  <si>
+    <t>Erinnerungsmails</t>
+  </si>
+  <si>
+    <t>Größenberater</t>
+  </si>
+  <si>
+    <t>Übersichtsseite (Feed)</t>
+  </si>
+  <si>
+    <t>Kampagne</t>
+  </si>
+  <si>
+    <t>Attributzuordnung aus Clusteranalyse</t>
+  </si>
+  <si>
+    <t>Werden die Elemente des User Generated Content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -459,6 +460,12 @@
       <color theme="1"/>
       <name val="Times Roman"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -676,7 +683,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -703,6 +710,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="191">
@@ -1171,22 +1181,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="8"/>
   </cols>
@@ -1246,124 +1256,159 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>37</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>42</v>
+      <c r="A5" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>43</v>
+      <c r="A6" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>44</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>45</v>
+      <c r="A8" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>46</v>
+      <c r="A9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>47</v>
+      <c r="A10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>48</v>
+      <c r="A11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="A12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1371,60 +1416,60 @@
         <v>42</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>11</v>
@@ -1440,119 +1485,111 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>40</v>
@@ -1560,7 +1597,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>40</v>
@@ -1568,7 +1605,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>40</v>
@@ -1576,7 +1613,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>40</v>
@@ -1584,98 +1621,58 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:B18"/>
     </sheetView>
   </sheetViews>
